--- a/data/lab4-matrix-math.xlsx
+++ b/data/lab4-matrix-math.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\econometrics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\lab-econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A5D302-9DB5-44DA-9B19-36952BF3030F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA30861-BDF3-4572-BAD6-7ECDFC043C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3188" yWindow="8040" windowWidth="20641" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lab4-matrix-math" sheetId="1" r:id="rId1"/>
@@ -55,478 +55,480 @@
     <t>matrix</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xtx</t>
+  </si>
+  <si>
+    <t>xtxi</t>
+  </si>
+  <si>
+    <t>xty</t>
+  </si>
+  <si>
+    <t>beta_hat</t>
+  </si>
+  <si>
+    <t>标量</t>
+  </si>
+  <si>
+    <t>scalar</t>
+  </si>
+  <si>
+    <t>$\mathbf{S_{\hat{\beta}}^2}$</t>
+  </si>
+  <si>
+    <t>s2_beta_hat</t>
+  </si>
+  <si>
+    <t>$\mathbf{S_{\hat{\beta}}}$</t>
+  </si>
+  <si>
+    <t>$n\bar{Y}^2$</t>
+  </si>
+  <si>
+    <t>mean_adj</t>
+  </si>
+  <si>
+    <t>$TSS$</t>
+  </si>
+  <si>
+    <t>tss</t>
+  </si>
+  <si>
+    <t>$RSS$</t>
+  </si>
+  <si>
+    <t>rss</t>
+  </si>
+  <si>
+    <t>$ESS$</t>
+  </si>
+  <si>
+    <t>ess</t>
+  </si>
+  <si>
+    <t>$R^2$</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>$\bar{R}^2$</t>
+  </si>
+  <si>
+    <t>r2_adj</t>
+  </si>
+  <si>
+    <t>t_str_beta_hat</t>
+  </si>
+  <si>
+    <t>$t_{1-\alpha/2}(n-k)$</t>
+  </si>
+  <si>
+    <t>t_value</t>
+  </si>
+  <si>
+    <t>$F^{\ast}$</t>
+  </si>
+  <si>
+    <t>f_str</t>
+  </si>
+  <si>
+    <t>$F_{1-\alpha}(k-1,n-k)$</t>
+  </si>
+  <si>
+    <t>f_value</t>
+  </si>
+  <si>
+    <t>cat_chn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_eng</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_xty</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_xtx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_xtxi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_b_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma2_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\hat{\sigma}^2$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\hat{\sigma}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_s2_b_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2_varcov_beta_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_s2_varcov_beta_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_beta_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_s_beta_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean_adj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ess</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_adj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_t_str_beta_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_str</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_group</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>组X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归误差方差</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归误差标准差</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值修正值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总平方和</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>残差平方和</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归平方和</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定系数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整判定系数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论t值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论F值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>F统计量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵t统计量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_chn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma2_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_x0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$X_0$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$S_{\hat{Y}_0}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_y0h_mns_y0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$S_{(\hat{Y}_0-Y_0)}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_y0h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>个值区间预测的左界</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>个值区间预测的右界</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值区间预测的左界</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值区间预测的右界</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_exp_lft</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_exp_rht</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_ind_lft</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">y_ind_rht </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值预测</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forecast_exp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>个值预测</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>forecast_ind</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本外X0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\hat{Y}_0$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>y0h</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>y0_hat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\hat{\beta}$样本方差协方差矩阵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\hat{\beta}$样本方差矩阵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\hat{\beta}$样本标准差矩阵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\hat{Y}_0$的样本标准差</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本外回归值$\hat{Y}_0$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$(\hat{Y}_0-{Y_0})$的样本标准差</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\mathbf{\hat{\beta}}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵$\mathbf{\hat{\beta}}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>$\mathbf{y}$</t>
-  </si>
-  <si>
-    <t>y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵$\mathbf{y}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>$\mathbf{X}$</t>
-  </si>
-  <si>
-    <t>x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵$\mathbf{X}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>$\mathbf{(X'X)}$</t>
-  </si>
-  <si>
-    <t>xtx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵$\mathbf{(X'X)}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>$\mathbf{{(X'X)}^{-1}}$</t>
-  </si>
-  <si>
-    <t>xtxi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵$\mathbf{{(X'X)}^{-1}}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>$\mathbf{X'y}$</t>
-  </si>
-  <si>
-    <t>xty</t>
-  </si>
-  <si>
-    <t>$\mathbf{\hat{\beta}}$</t>
-  </si>
-  <si>
-    <t>beta_hat</t>
-  </si>
-  <si>
-    <t>标量</t>
-  </si>
-  <si>
-    <t>scalar</t>
-  </si>
-  <si>
-    <t>$\widehat{var}\_\widehat{cov}(\mathbf{\hat{\beta}})$</t>
-  </si>
-  <si>
-    <t>$\mathbf{S_{\hat{\beta}}^2}$</t>
-  </si>
-  <si>
-    <t>s2_beta_hat</t>
-  </si>
-  <si>
-    <t>$\mathbf{S_{\hat{\beta}}}$</t>
-  </si>
-  <si>
-    <t>$n\bar{Y}^2$</t>
-  </si>
-  <si>
-    <t>mean_adj</t>
-  </si>
-  <si>
-    <t>$TSS$</t>
-  </si>
-  <si>
-    <t>tss</t>
-  </si>
-  <si>
-    <t>$RSS$</t>
-  </si>
-  <si>
-    <t>rss</t>
-  </si>
-  <si>
-    <t>$ESS$</t>
-  </si>
-  <si>
-    <t>ess</t>
-  </si>
-  <si>
-    <t>$R^2$</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>$\bar{R}^2$</t>
-  </si>
-  <si>
-    <t>r2_adj</t>
-  </si>
-  <si>
-    <t>$\mathbf{t^{\ast}_{\beta}}$</t>
-  </si>
-  <si>
-    <t>t_str_beta_hat</t>
-  </si>
-  <si>
-    <t>$t_{1-\alpha/2}(n-k)$</t>
-  </si>
-  <si>
-    <t>t_value</t>
-  </si>
-  <si>
-    <t>$F^{\ast}$</t>
-  </si>
-  <si>
-    <t>f_str</t>
-  </si>
-  <si>
-    <t>$F_{1-\alpha}(k-1,n-k)$</t>
-  </si>
-  <si>
-    <t>f_value</t>
-  </si>
-  <si>
-    <t>cat_chn</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>name_eng</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_xty</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_xtx</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_xtxi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_b_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sigma2_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sigma_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$\hat{\sigma}^2$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$\hat{\sigma}$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_s2_b_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s2_varcov_beta_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_s2_varcov_beta_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_beta_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_s_beta_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mean_adj</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rss</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ess</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_adj</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_t_str_beta_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_value</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_str</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_value</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>x_group</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列Y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>组X</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵x</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵xtx</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵xtxi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵xty</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归误差方差</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归误差标准差</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>beta样本方差协方差矩阵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>beta样本标准差矩阵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>beta样本方差矩阵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>均值修正值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>总平方和</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>残差平方和</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归平方和</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>判定系数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整判定系数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论t值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论F值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵beta</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>F统计量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵t统计量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>name_chn</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sigma2_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sigma_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_x0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$X_0$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>x0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$S_{\hat{Y}_0}$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y0_hat的样本标准差</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y0_hat-Y0的样本标准差</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_y0h_mns_y0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$S_{(\hat{Y}_0-Y_0)}$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_y0h</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>个值区间预测的左界</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>个值区间预测的右界</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>均值区间预测的左界</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>均值区间预测的右界</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>y_exp_lft</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>y_exp_rht</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>y_ind_lft</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">y_ind_rht </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$E(Y|X=X_0)_L$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$E(Y|X=X_0)_R$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$(Y_0|X=X_0)_L$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$(Y_0|X=X_0)_R$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>均值预测</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>forecast_exp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>个值预测</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>forecast_ind</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$E(Y|X=X_0)$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$(Y_0|X=X_0)$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>样本外X0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>样本外回归值Y0_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>$\hat{Y}_0$</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>y0h</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>y0_hat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵$\mathbf{X'y}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\mathbf{t}^{\ast}_{\mathbf{\beta}}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\mathrm{var}-\mathrm{cov}{(\mathbf{\hat{\beta}})}$</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$E(Y\mid X=X_0)$</t>
+  </si>
+  <si>
+    <t>$E(Y\mid X=X_0)_L$</t>
+  </si>
+  <si>
+    <t>$E(Y\mid X=X_0)_R$</t>
+  </si>
+  <si>
+    <t>$(Y_0\mid X=X_0)$</t>
+  </si>
+  <si>
+    <t>$(Y_0\mid X=X_0)_L$</t>
+  </si>
+  <si>
+    <t>$(Y_0\mid X=X_0)_R$</t>
   </si>
 </sst>
 </file>
@@ -1490,27 +1492,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1524,10 +1526,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1539,18 +1541,18 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1564,10 +1566,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1576,18 +1578,18 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1596,18 +1598,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1616,18 +1618,18 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1636,18 +1638,18 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1656,18 +1658,18 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1676,58 +1678,58 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
         <v>87</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1736,18 +1738,18 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1756,18 +1758,18 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1776,138 +1778,138 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -1916,270 +1918,270 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
